--- a/tables/crosstab/crosstab_app_safety/revealed, VS physically_chisq.xlsx
+++ b/tables/crosstab/crosstab_app_safety/revealed, VS physically_chisq.xlsx
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>68.01300000000001</v>
+        <v>63.3875</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.4078</v>
+        <v>0.3981</v>
       </c>
     </row>
   </sheetData>
